--- a/Data/privatization_by_economic_activity.xlsx
+++ b/Data/privatization_by_economic_activity.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="17460" windowHeight="8380"/>
   </bookViews>
   <sheets>
-    <sheet name="privatization by econom.act. " sheetId="1" r:id="rId1"/>
+    <sheet name="privatization by econom.act." sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="translation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -96,17 +106,17 @@
     <t>economic activity</t>
   </si>
   <si>
-    <t>nunber of privatized companies on 01.01.2005</t>
-  </si>
-  <si>
     <t>Data source - data f is taken from official annual summary report of the State Property Fund of Ukraine for 2004 year. Annex 5. http://www.spfu.gov.ua/userfiles/pdf/2004_12.pdf</t>
+  </si>
+  <si>
+    <t>number of privatized companies on 01.01.2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,26 +164,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,14 +213,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,14 +247,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,28 +458,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -483,7 +487,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -491,7 +495,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -499,7 +503,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -507,7 +511,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -515,7 +519,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -523,7 +527,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -531,7 +535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -539,7 +543,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -547,7 +551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -555,7 +559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -569,21 +573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -592,20 +596,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -613,7 +617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -637,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -653,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -661,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -669,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -677,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -685,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -693,7 +697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
